--- a/questionnaires/education_summary.xlsx
+++ b/questionnaires/education_summary.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bluebii/Library/Mobile Documents/com~apple~CloudDocs/TRAVAIL/Jobs/Stantcheva_2020:21/OECD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afabre\Documents\www\oecd_climate\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518DCC83-29CD-4944-B777-2420E5C0D0B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="22520" windowHeight="13980" xr2:uid="{B4830083-A63F-7B46-B484-CA17167E4D01}"/>
+    <workbookView xWindow="480" yWindow="960" windowWidth="22520" windowHeight="13980"/>
   </bookViews>
   <sheets>
     <sheet name="Final categories" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,17 +31,26 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={B1142888-432F-3746-A96B-D2B70F9A9B9E}</author>
   </authors>
   <commentList>
-    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{B1142888-432F-3746-A96B-D2B70F9A9B9E}">
+    <comment ref="G14" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     In Korea, 5/6 are a bit mixed so take this number</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -50,17 +58,26 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={4E156E86-380A-F741-96E4-52127F0CF9DA}</author>
   </authors>
   <commentList>
-    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{4E156E86-380A-F741-96E4-52127F0CF9DA}">
+    <comment ref="G19" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     In Korea, 5/6 are a bit mixed so take this number</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -68,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="122">
   <si>
     <t>Australia</t>
   </si>
@@ -517,12 +534,15 @@
   <si>
     <t>Doctorate degree (for example, PhD, EdD)</t>
   </si>
+  <si>
+    <t>Question approved by native</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -541,12 +561,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -594,7 +608,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -617,7 +631,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -954,14 +968,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F38673-13FD-E245-874A-52952A38B37B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.5" bestFit="1" customWidth="1"/>
@@ -978,7 +992,7 @@
     <col min="13" max="13" width="70" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1016,7 +1030,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1054,7 +1068,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
@@ -1092,7 +1106,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>74</v>
       </c>
@@ -1130,7 +1144,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>75</v>
       </c>
@@ -1168,7 +1182,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>76</v>
       </c>
@@ -1206,7 +1220,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>77</v>
       </c>
@@ -1244,7 +1258,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>78</v>
       </c>
@@ -1282,7 +1296,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>79</v>
       </c>
@@ -1311,7 +1325,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="G10" s="5" t="s">
         <v>13</v>
       </c>
@@ -1325,17 +1339,17 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="G12" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="8" customFormat="1">
+    <row r="14" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>108</v>
       </c>
@@ -1376,7 +1390,30 @@
         <v>0.158</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>109</v>
       </c>
@@ -1387,15 +1424,15 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B20" s="10" t="s">
         <v>111</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1" xr:uid="{838CEE63-3AB5-B24D-A570-3DCD5DAE704E}"/>
-    <hyperlink ref="B19" r:id="rId2" xr:uid="{FDFA93A1-83B4-8743-9472-6BDF3D7E869E}"/>
+    <hyperlink ref="B20" r:id="rId1"/>
+    <hyperlink ref="B19" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId3"/>
@@ -1403,14 +1440,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD05882-E282-AC47-99CE-F429CA256FA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="A19" sqref="A19:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.5" bestFit="1" customWidth="1"/>
@@ -1427,7 +1464,7 @@
     <col min="13" max="13" width="70" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1465,7 +1502,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1503,7 +1540,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
@@ -1541,7 +1578,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>74</v>
       </c>
@@ -1579,7 +1616,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>75</v>
       </c>
@@ -1617,7 +1654,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>76</v>
       </c>
@@ -1655,7 +1692,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>77</v>
       </c>
@@ -1693,7 +1730,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>78</v>
       </c>
@@ -1731,7 +1768,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>79</v>
       </c>
@@ -1760,7 +1797,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
       <c r="G10" s="5" t="s">
         <v>13</v>
       </c>
@@ -1774,17 +1811,17 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
       <c r="G12" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -1792,7 +1829,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -1833,7 +1870,7 @@
         <v>0.158</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>100</v>
       </c>
@@ -1874,22 +1911,22 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>107</v>
       </c>

--- a/questionnaires/education_summary.xlsx
+++ b/questionnaires/education_summary.xlsx
@@ -542,7 +542,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -566,6 +566,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -610,7 +617,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
@@ -632,6 +639,7 @@
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -971,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1394,15 +1402,21 @@
       <c r="A15" t="s">
         <v>121</v>
       </c>
+      <c r="B15" s="7"/>
       <c r="C15" s="5">
         <v>1</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
       </c>
+      <c r="E15" s="11"/>
       <c r="F15" s="5">
         <v>1</v>
       </c>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7"/>
       <c r="I15" s="5">
         <v>1</v>
       </c>
@@ -1435,6 +1449,7 @@
     <hyperlink ref="B19" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>

--- a/questionnaires/education_summary.xlsx
+++ b/questionnaires/education_summary.xlsx
@@ -572,7 +572,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -639,7 +638,7 @@
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -979,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1402,21 +1401,27 @@
       <c r="A15" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
       <c r="C15" s="5">
         <v>1</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="11">
+        <v>1</v>
+      </c>
       <c r="F15" s="5">
         <v>1</v>
       </c>
       <c r="G15" s="5">
         <v>1</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
       <c r="I15" s="5">
         <v>1</v>
       </c>

--- a/questionnaires/education_summary.xlsx
+++ b/questionnaires/education_summary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afabre\Documents\www\oecd_climate\questionnaires\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bluebii/Library/Mobile Documents/com~apple~CloudDocs/TRAVAIL/Jobs/Stantcheva_2020:21/OECD/oecd_climate/questionnaires/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5293095-ECEF-D74B-B4F7-6BE656D020EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="22520" windowHeight="13980"/>
+    <workbookView xWindow="480" yWindow="960" windowWidth="22520" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Final categories" sheetId="2" r:id="rId1"/>
@@ -20,37 +21,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={B1142888-432F-3746-A96B-D2B70F9A9B9E}</author>
   </authors>
   <commentList>
-    <comment ref="G14" authorId="0" shapeId="0">
+    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     In Korea, 5/6 are a bit mixed so take this number</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -58,26 +44,17 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={4E156E86-380A-F741-96E4-52127F0CF9DA}</author>
   </authors>
   <commentList>
-    <comment ref="G19" authorId="0" shapeId="0">
+    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     In Korea, 5/6 are a bit mixed so take this number</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -85,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="129">
   <si>
     <t>Australia</t>
   </si>
@@ -147,15 +124,9 @@
     <t>Basic professional training</t>
   </si>
   <si>
-    <t>Medium level vocational training</t>
-  </si>
-  <si>
     <t>High school</t>
   </si>
   <si>
-    <t>University degree or higher professional training</t>
-  </si>
-  <si>
     <t>Master or PhD</t>
   </si>
   <si>
@@ -210,12 +181,6 @@
     <t>Technical or intermediate level training</t>
   </si>
   <si>
-    <t>General Baccalaureate or Technological Baccalaureate Technical Professional Baccalaureate or Technical Professional</t>
-  </si>
-  <si>
-    <t>University degree or higher professional training (Bachelor's Degree, Higher University Technician)</t>
-  </si>
-  <si>
     <t>Master's or Specialty or Doctorate</t>
   </si>
   <si>
@@ -258,9 +223,6 @@
     <t>Postgraduate diploma or certificate</t>
   </si>
   <si>
-    <t>• Master's Degree (MSc, MA, MBA, etc.) or Ph.D.</t>
-  </si>
-  <si>
     <t>No formal education</t>
   </si>
   <si>
@@ -309,16 +271,10 @@
     <t>Master's Degree or Doctorate</t>
   </si>
   <si>
-    <t>High School degree (Year 12) or Certificate III</t>
-  </si>
-  <si>
     <t>Certificate IV</t>
   </si>
   <si>
     <t>Advanced Diploma, Diploma, Associate Degree;</t>
-  </si>
-  <si>
-    <t>Bachelor Degree</t>
   </si>
   <si>
     <t>Graduate Diploma, Graduate Certificate</t>
@@ -402,12 +358,6 @@
     </r>
   </si>
   <si>
-    <t>Primary school</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Junior high school</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="7"/>
@@ -428,6 +378,93 @@
     </r>
   </si>
   <si>
+    <t>Nothing</t>
+  </si>
+  <si>
+    <t>Elementary school</t>
+  </si>
+  <si>
+    <t>Middle school</t>
+  </si>
+  <si>
+    <t>Diploma / Certificate of professional qualification, Professional Diploma of Technician</t>
+  </si>
+  <si>
+    <t>High school (Higher secondary education diploma)</t>
+  </si>
+  <si>
+    <t>Higher Technical Diploma (ITS) / Higher Technical Specialization Certificate (IFTS)</t>
+  </si>
+  <si>
+    <t>Bachelor</t>
+  </si>
+  <si>
+    <t>ISCED Level 5</t>
+  </si>
+  <si>
+    <t>ISCED Level 6+</t>
+  </si>
+  <si>
+    <t>Stats</t>
+  </si>
+  <si>
+    <t>Color scheme</t>
+  </si>
+  <si>
+    <t>ISCED Level 5+</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>CENSUS DATA</t>
+  </si>
+  <si>
+    <t>Objective share</t>
+  </si>
+  <si>
+    <t>Aimed share:</t>
+  </si>
+  <si>
+    <t>sources</t>
+  </si>
+  <si>
+    <t>https://stats.oecd.org/viewhtml.aspx?datasetcode=EAG_NEAC&amp;lang=en#</t>
+  </si>
+  <si>
+    <t>https://data.census.gov/cedsci/table?tid=ACSST1Y2019.S1501</t>
+  </si>
+  <si>
+    <t>*sometimes OECD categorization (https://gpseducation.oecd.org/CountryProfile) is unclear whether a category is ISCED 5 or 6. In this case, we add ISCED 5. Sometimes for cultural reasons including ISCED 5 makes also more sense.</t>
+  </si>
+  <si>
+    <t>Eigth grade or less</t>
+  </si>
+  <si>
+    <t>Regular high school diploma/GED or alternative credential</t>
+  </si>
+  <si>
+    <t>Some college, no degree</t>
+  </si>
+  <si>
+    <t>2-year college degree or associates degree (for example: AA, AS)</t>
+  </si>
+  <si>
+    <t>Bachelor's degree (for example: BA, BS)</t>
+  </si>
+  <si>
+    <t>Master’s degree (for example: MA, MS, MEng, MEd, MSW, MBA)</t>
+  </si>
+  <si>
+    <t>Professional degree beyond bachelor’s degree (for example: MD, DDS, DVM, LLB, JD)</t>
+  </si>
+  <si>
+    <t>Doctorate degree (for example, PhD, EdD)</t>
+  </si>
+  <si>
+    <t>Question approved by native</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="7"/>
@@ -444,105 +481,66 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>College</t>
+      <t>Primary education</t>
     </r>
   </si>
   <si>
-    <t>Nothing</t>
-  </si>
-  <si>
-    <t>Elementary school</t>
-  </si>
-  <si>
-    <t>Middle school</t>
-  </si>
-  <si>
-    <t>Diploma / Certificate of professional qualification, Professional Diploma of Technician</t>
-  </si>
-  <si>
-    <t>High school (Higher secondary education diploma)</t>
-  </si>
-  <si>
-    <t>Higher Technical Diploma (ITS) / Higher Technical Specialization Certificate (IFTS)</t>
-  </si>
-  <si>
-    <t>Bachelor</t>
-  </si>
-  <si>
-    <t>ISCED Level 5</t>
-  </si>
-  <si>
-    <t>ISCED Level 6+</t>
-  </si>
-  <si>
-    <t>Stats</t>
-  </si>
-  <si>
-    <t>Color scheme</t>
-  </si>
-  <si>
-    <t>ISCED Level 5+</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Diploma and Advanced Diploma</t>
-  </si>
-  <si>
-    <t>CENSUS DATA</t>
-  </si>
-  <si>
-    <t>Objective share</t>
-  </si>
-  <si>
-    <t>Aimed share:</t>
-  </si>
-  <si>
-    <t>sources</t>
-  </si>
-  <si>
-    <t>https://stats.oecd.org/viewhtml.aspx?datasetcode=EAG_NEAC&amp;lang=en#</t>
-  </si>
-  <si>
-    <t>https://data.census.gov/cedsci/table?tid=ACSST1Y2019.S1501</t>
-  </si>
-  <si>
-    <t>*sometimes OECD categorization (https://gpseducation.oecd.org/CountryProfile) is unclear whether a category is ISCED 5 or 6. In this case, we add ISCED 5. Sometimes for cultural reasons including ISCED 5 makes also more sense.</t>
-  </si>
-  <si>
-    <t>Eigth grade or less</t>
-  </si>
-  <si>
-    <t>Regular high school diploma/GED or alternative credential</t>
-  </si>
-  <si>
-    <t>Some college, no degree</t>
-  </si>
-  <si>
-    <t>2-year college degree or associates degree (for example: AA, AS)</t>
-  </si>
-  <si>
-    <t>Bachelor's degree (for example: BA, BS)</t>
-  </si>
-  <si>
-    <t>Master’s degree (for example: MA, MS, MEng, MEd, MSW, MBA)</t>
-  </si>
-  <si>
-    <t>Professional degree beyond bachelor’s degree (for example: MD, DDS, DVM, LLB, JD)</t>
-  </si>
-  <si>
-    <t>Doctorate degree (for example, PhD, EdD)</t>
-  </si>
-  <si>
-    <t>Question approved by native</t>
+    <t>Junior High school</t>
+  </si>
+  <si>
+    <t>Vocational technical school</t>
+  </si>
+  <si>
+    <t>Technical short-term college</t>
+  </si>
+  <si>
+    <t>Professional Graduate school</t>
+  </si>
+  <si>
+    <t>College</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>Doctorate</t>
+  </si>
+  <si>
+    <t>No schooling completed</t>
+  </si>
+  <si>
+    <t>Medium professional training</t>
+  </si>
+  <si>
+    <t>Higher professional training</t>
+  </si>
+  <si>
+    <t>University degree</t>
+  </si>
+  <si>
+    <t>Certificate III</t>
+  </si>
+  <si>
+    <t>High School (successful completion of year 12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Technological Baccalaureate Technical Professional Baccalaureate or Technical Professional</t>
+  </si>
+  <si>
+    <t>General Baccalaureate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Higher professional training (Bachelor's Degree, Higher University Technician)</t>
+  </si>
+  <si>
+    <t>Master's Degree (MSc, MA, MBA, etc.) or Ph.D.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -575,6 +573,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -616,12 +620,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -639,6 +640,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="4"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -975,14 +982,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.5" bestFit="1" customWidth="1"/>
@@ -999,7 +1006,7 @@
     <col min="13" max="13" width="70" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1013,7 +1020,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1022,71 +1029,71 @@
         <v>16</v>
       </c>
       <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" spans="1:13">
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
-      </c>
-      <c r="M1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" t="s">
-        <v>39</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
-        <v>17</v>
+      <c r="H2" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="L2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -1095,36 +1102,36 @@
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="B4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -1133,325 +1140,349 @@
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B5" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="B5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>40</v>
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>47</v>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>115</v>
+        <v>49</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="L5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B6" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>41</v>
+        <v>86</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" t="s">
+        <v>125</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>116</v>
+        <v>20</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="L6" t="s">
-        <v>62</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>42</v>
+      <c r="D7" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>117</v>
+      <c r="H7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="L7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>43</v>
+      <c r="D8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K8" s="5" t="s">
+      <c r="H8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="E11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="E12" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B9" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="G10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="G11" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="G12" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="8">
+    </row>
+    <row r="14" spans="1:13" s="7" customFormat="1">
+      <c r="A14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="7">
         <v>0.49299999999999999</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>0.6</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>0.20100000000000001</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>0.52700000000000002</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <v>0.189</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <v>0.50700000000000001</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <v>0.27500000000000002</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="7">
         <v>0.158</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="7">
         <v>0.49399999999999999</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <v>0.60899999999999999</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="7">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="7">
         <v>0.158</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15" s="5">
+        <v>110</v>
+      </c>
+      <c r="B15" s="4">
         <v>1</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>1</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>1</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>1</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>1</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>1</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>1</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <v>1</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>1</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>109</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>110</v>
+        <v>98</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B20" s="10" t="s">
-        <v>111</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" s="9" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1"/>
-    <hyperlink ref="B19" r:id="rId2"/>
+    <hyperlink ref="B20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B19" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1460,14 +1491,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD20"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.5" bestFit="1" customWidth="1"/>
@@ -1484,7 +1515,7 @@
     <col min="13" max="13" width="70" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:13">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1498,7 +1529,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1507,71 +1538,71 @@
         <v>16</v>
       </c>
       <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" spans="2:13">
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
-      </c>
-      <c r="M1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" t="s">
-        <v>39</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
-        <v>17</v>
+      <c r="H2" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -1580,36 +1611,36 @@
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -1618,281 +1649,305 @@
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>40</v>
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>47</v>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>28</v>
+        <v>49</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="L5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B6" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>41</v>
+        <v>86</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" t="s">
+        <v>125</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="L6" t="s">
-        <v>62</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>42</v>
+      <c r="D7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>30</v>
+        <v>120</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="L7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>43</v>
+      <c r="D8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K8" s="5" t="s">
+      <c r="H8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B9" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="L10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="E11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="E12" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G11" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G12" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="K18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="7">
+        <v>93</v>
+      </c>
+      <c r="B19" s="6">
         <v>0.49299999999999999</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>0.6</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="7">
+        <v>94</v>
+      </c>
+      <c r="E19" s="6">
         <v>0.52700000000000002</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <v>0.19400000000000001</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <v>0.50700000000000001</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="7">
         <v>0.39700000000000002</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="7">
         <v>0.22</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="6">
         <v>0.49399999999999999</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="6">
         <v>0.60899999999999999</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="6">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="6">
         <v>0.158</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B20">
         <v>0.375</v>
@@ -1900,28 +1955,28 @@
       <c r="C20">
         <v>0.33400000000000002</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>0.20100000000000001</v>
       </c>
       <c r="E20">
         <v>0.313</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <v>0.189</v>
       </c>
       <c r="G20">
         <v>0.36599999999999999</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="6">
         <v>0.27500000000000002</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <v>0.158</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="7">
         <v>0.39900000000000002</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="7">
         <v>0.30599999999999999</v>
       </c>
       <c r="L20">
@@ -1931,24 +1986,24 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
-        <v>107</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="6" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
